--- a/September9AMProject/target/test-classes/SuiteA.xlsx
+++ b/September9AMProject/target/test-classes/SuiteA.xlsx
@@ -749,7 +749,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -952,7 +952,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C2" sqref="C2:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
